--- a/examples/financial_transactions/data.xlsx
+++ b/examples/financial_transactions/data.xlsx
@@ -84,10 +84,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-10 22:52:34'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' tableFormat='row' id='Transaction' name='Transaction' description='Stores transactions' date='2020-03-10 22:52:34' objTablesVersion='0.0.8'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-11 23:55:18'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' id='Transaction' name='Transaction' description='Stores transactions' date='2020-03-11 23:55:18' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Amount</t>

--- a/examples/financial_transactions/data.xlsx
+++ b/examples/financial_transactions/data.xlsx
@@ -1,13 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="!!Transaction" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Transaction" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Transaction'!$A$3:$D$7</definedName>
@@ -16,142 +15,40 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a float or blank.
-Value must be positive.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a date.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color indexed="81"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
-  <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-11 23:55:18'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' tableFormat='row' id='Transaction' name='Transaction' description='Stores transactions' date='2020-03-11 23:55:18' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!Amount</t>
-  </si>
-  <si>
-    <t>!Category</t>
-  </si>
-  <si>
-    <t>!Date</t>
-  </si>
-  <si>
-    <t>!Payee</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>Restaurant</t>
-  </si>
-  <si>
-    <t>Sam's market</t>
-  </si>
-  <si>
-    <t>Wine</t>
-  </si>
-  <si>
-    <t>Liquor store</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color indexed="81"/>
+      <sz val="8"/>
     </font>
     <font>
-      <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -182,25 +79,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>None</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Enter a float or blank.
+Value must be positive.</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Enter a string.
+Value must be less than or equal to 255 characters.</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Enter a date.</t>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <t>Enter a string.
+Value must be less than or equal to 255 characters.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,117 +416,148 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col width="15.7109375" customWidth="1" min="1" max="4"/>
+    <col hidden="1" min="5" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A4" s="4">
+    <row r="1" ht="15.01" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-11 23:55:18'</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="15.01" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>!!ObjTables type='Data' tableFormat='row' class='Transaction' name='Transaction' description='Stores transactions' date='2020-03-11 23:55:18' objTablesVersion='0.0.8'</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="2" t="n"/>
+      <c r="D2" s="2" t="n"/>
+    </row>
+    <row r="3" ht="15.01" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>!Amount</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>!Category</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>!Date</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>!Payee</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.01" customHeight="1">
+      <c r="A4" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A5" s="4">
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Restaurant</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15.01" customHeight="1">
+      <c r="A5" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A6" s="4">
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Sam's market</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.01" customHeight="1">
+      <c r="A6" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Wine</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Liquor store</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.01" customHeight="1">
+      <c r="A7" s="4" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.01" customHeight="1">
-      <c r="A7" s="4">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4" t="s">
-        <v>8</v>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Food</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Sam's market</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A3:D7"/>
   <dataValidations count="4">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Amount" error="Value must be a float or blank." promptTitle="Amount" prompt="Enter a float or blank.&#10;&#10;Value must be positive." sqref="A4:A7">
+    <dataValidation sqref="A4:A7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Amount" error="Value must be a float or blank." promptTitle="Amount" prompt="Enter a float or blank.&#10;&#10;Value must be positive." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Category" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B7">
+    <dataValidation sqref="B4:B7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Category" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Category" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="date" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date" error="Value must be a date." promptTitle="Date" prompt="Enter a date." sqref="C4:C7">
+    <dataValidation sqref="C4:C7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Date" error="Value must be a date." promptTitle="Date" prompt="Enter a date." type="date" errorStyle="warning">
       <formula1>1</formula1>
       <formula2>2958465</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Payee" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Payee" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D4:D7">
+    <dataValidation sqref="D4:D7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Payee" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Payee" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/examples/financial_transactions/data.xlsx
+++ b/examples/financial_transactions/data.xlsx
@@ -1,54 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="!!Transaction" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="!!Transaction" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Transaction'!$A$3:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Transaction'!$A$3:$C$7</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+  <si>
+    <t>!!!ObjTables objTablesVersion='1.0.1' date='2020-03-11 23:55:18'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Transaction' name='Transaction' description='Stores transactions' date='2020-03-11 23:55:18' objTablesVersion='1.0.1'</t>
+  </si>
+  <si>
+    <t>!Amount</t>
+  </si>
+  <si>
+    <t>!Category</t>
+  </si>
+  <si>
+    <t>!Payee</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Sam's market</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Liquor store</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <color indexed="81"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -78,58 +107,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>None</author>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
-      <text>
-        <t>Enter a float or blank.
-Value must be positive.</t>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
-      <text>
-        <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
-      <text>
-        <t>Enter a date.</t>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
-      <text>
-        <t>Enter a string.
-Value must be less than or equal to 255 characters.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,148 +412,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col width="15.7109375" customWidth="1" min="1" max="4"/>
-    <col hidden="1" min="5" max="16384"/>
+    <col min="1" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.01" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-11 23:55:18'</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="15.01" customHeight="1">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>!!ObjTables type='Data' tableFormat='row' class='Transaction' name='Transaction' description='Stores transactions' date='2020-03-11 23:55:18' objTablesVersion='0.0.8'</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="15.01" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>!Amount</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>!Category</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>!Date</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>!Payee</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15.01" customHeight="1">
-      <c r="A4" s="4" t="n">
+    <row r="1" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A4" s="3">
         <v>100</v>
       </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Restaurant</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15.01" customHeight="1">
-      <c r="A5" s="4" t="n">
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A5" s="3">
         <v>50</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="n"/>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Sam's market</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15.01" customHeight="1">
-      <c r="A6" s="4" t="n">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A6" s="3">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Wine</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="n"/>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Liquor store</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15.01" customHeight="1">
-      <c r="A7" s="4" t="n">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.01" customHeight="1">
+      <c r="A7" s="3">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Food</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="n"/>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Sam's market</t>
-        </is>
+      <c r="B7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:D7"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <autoFilter ref="A3:C7"/>
   <dataValidations count="4">
-    <dataValidation sqref="A4:A7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Amount" error="Value must be a float or blank." promptTitle="Amount" prompt="Enter a float or blank.&#10;&#10;Value must be positive." type="decimal" errorStyle="warning" operator="greaterThanOrEqual">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Amount" error="Value must be a float or blank." promptTitle="Amount" prompt="Enter a float or blank.&#10;&#10;Value must be positive." sqref="A4:A7">
       <formula1>-1e-100</formula1>
     </dataValidation>
-    <dataValidation sqref="B4:B7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Category" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Category" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Category" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Category" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B7">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation sqref="C4:C7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Date" error="Value must be a date." promptTitle="Date" prompt="Enter a date." type="date" errorStyle="warning">
+    <dataValidation type="date" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Date" error="Value must be a date." promptTitle="Date" prompt="Enter a date." sqref="C4:C7">
       <formula1>1</formula1>
       <formula2>2958465</formula2>
     </dataValidation>
-    <dataValidation sqref="D4:D7" showErrorMessage="1" showInputMessage="1" allowBlank="0" errorTitle="Payee" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Payee" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." type="textLength" errorStyle="warning" operator="lessThanOrEqual">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Payee" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Payee" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D4:D7">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>